--- a/tests/009b_integration_multiple.xlsx
+++ b/tests/009b_integration_multiple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschweers/Documents/commcare-export/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F22389-06DE-DF4D-A494-38A957F9506E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A874835-369D-C34A-8476-917201D01BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10280" yWindow="8720" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forms_1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>xmlns.exact</t>
   </si>
   <si>
-    <t>http://openrosa.org/formdesigner/C913EF30-3F45-4071-956F-E2B6513CFCC9</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -61,13 +58,16 @@
     <t>form.name</t>
   </si>
   <si>
-    <t>http://openrosa.org/formdesigner/C2D2AE89-CF6F-4EB3-8D92-0805C479376D</t>
-  </si>
-  <si>
     <t>form.@name</t>
   </si>
   <si>
     <t>indexed_on</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/formdesigner/11FAC65A-F2CD-427F-A870-CF126336AAB5</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/formdesigner/959549AF-B63E-458F-841B-B9267AF0DBDC</t>
   </si>
 </sst>
 </file>
@@ -89,8 +89,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -113,21 +114,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -479,33 +479,36 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{465320C4-F363-5043-995E-BBB78B091725}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -519,7 +522,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -555,30 +558,30 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
